--- a/Team-Data/2013-14/3-16-2013-14.xlsx
+++ b/Team-Data/2013-14/3-16-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -783,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -848,40 +915,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.432</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
         <v>21.2</v>
@@ -893,13 +960,13 @@
         <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
@@ -908,43 +975,43 @@
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
         <v>19.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -953,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -965,31 +1032,31 @@
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>14</v>
       </c>
       <c r="AU3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW3" t="n">
         <v>23</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1120,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1153,13 +1220,13 @@
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1171,13 +1238,13 @@
         <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.493</v>
+        <v>0.485</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,25 +1297,25 @@
         <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.732</v>
@@ -1266,7 +1333,7 @@
         <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
@@ -1284,16 +1351,16 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1320,19 +1387,19 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1362,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1526,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -1576,40 +1643,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>0.388</v>
+        <v>0.394</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P7" t="n">
         <v>22.8</v>
@@ -1633,43 +1700,43 @@
         <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1705,13 +1772,13 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1720,13 +1787,13 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.591</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,19 +1843,19 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M8" t="n">
         <v>22.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O8" t="n">
         <v>17</v>
@@ -1809,7 +1876,7 @@
         <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>13.4</v>
@@ -1824,19 +1891,19 @@
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
         <v>19.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1902,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2084,7 +2151,7 @@
         <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
         <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.618</v>
+        <v>0.612</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,16 +2389,16 @@
         <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.377</v>
@@ -2343,40 +2410,40 @@
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R11" t="n">
         <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
         <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W11" t="n">
         <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC11" t="n">
         <v>4.6</v>
@@ -2415,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2433,10 +2500,10 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2451,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.677</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,7 +2571,7 @@
         <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.473</v>
@@ -2513,10 +2580,10 @@
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
         <v>21.8</v>
@@ -2525,16 +2592,16 @@
         <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U12" t="n">
         <v>20.7</v>
@@ -2555,19 +2622,19 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
@@ -2764,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2773,16 +2840,16 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2794,16 +2861,16 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2821,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,28 +2935,28 @@
         <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
@@ -2901,37 +2968,37 @@
         <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>20</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3152,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
         <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.703</v>
+        <v>0.698</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3417,7 +3484,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3429,22 +3496,22 @@
         <v>0.37</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
         <v>7.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="U17" t="n">
         <v>23.1</v>
@@ -3468,13 +3535,13 @@
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3510,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>0.194</v>
+        <v>0.197</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,7 +3663,7 @@
         <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.431</v>
@@ -3605,28 +3672,28 @@
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N18" t="n">
         <v>0.354</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>21.3</v>
@@ -3638,25 +3705,25 @@
         <v>6.7</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3695,13 +3762,13 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>87.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.44</v>
@@ -3787,28 +3854,28 @@
         <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.341</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T19" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3823,7 +3890,7 @@
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
         <v>18.5</v>
@@ -3835,13 +3902,13 @@
         <v>106.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD19" t="n">
         <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3865,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3877,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>12</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -3942,100 +4009,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
         <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>0.409</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
         <v>42.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -4059,10 +4126,10 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4086,10 +4153,10 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4211,10 +4278,10 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
         <v>48</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.738</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
         <v>7.8</v>
       </c>
       <c r="M22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
@@ -4345,19 +4412,19 @@
         <v>24.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R22" t="n">
         <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4366,31 +4433,31 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z22" t="n">
         <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>106.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>3</v>
@@ -4399,7 +4466,7 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
         <v>18</v>
@@ -4411,10 +4478,10 @@
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4432,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4456,10 +4523,10 @@
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4587,13 +4654,13 @@
         <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>24</v>
@@ -4620,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
@@ -4632,13 +4699,13 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,10 +4827,10 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.46</v>
@@ -4882,22 +4949,22 @@
         <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P25" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
         <v>43.2</v>
@@ -4906,10 +4973,10 @@
         <v>19.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
         <v>4.7</v>
@@ -4918,28 +4985,28 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -4948,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4960,19 +5027,19 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO25" t="n">
         <v>9</v>
       </c>
-      <c r="AO25" t="n">
-        <v>8</v>
-      </c>
       <c r="AP25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
@@ -4993,7 +5060,7 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="n">
         <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.642</v>
+        <v>0.652</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5055,7 +5122,7 @@
         <v>87.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
@@ -5064,16 +5131,16 @@
         <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
         <v>12.7</v>
@@ -5100,19 +5167,19 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5175,13 +5242,13 @@
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.343</v>
+        <v>0.348</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
@@ -5249,10 +5316,10 @@
         <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P27" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.766</v>
@@ -5282,10 +5349,10 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB27" t="n">
         <v>101.1</v>
@@ -5294,7 +5361,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>19</v>
@@ -5360,7 +5427,7 @@
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
         <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5428,34 +5495,34 @@
         <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.787</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
         <v>42.9</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.1</v>
+        <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5503,7 +5570,7 @@
         <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5521,10 +5588,10 @@
         <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5533,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.569</v>
+        <v>0.578</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
@@ -5610,7 +5677,7 @@
         <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O29" t="n">
         <v>19.2</v>
@@ -5619,25 +5686,25 @@
         <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R29" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5646,40 +5713,40 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD29" t="n">
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG29" t="n">
         <v>11</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5694,19 +5761,19 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS29" t="n">
         <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5724,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H30" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.443</v>
@@ -5789,10 +5856,10 @@
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
@@ -5804,10 +5871,10 @@
         <v>0.748</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
         <v>41.5</v>
@@ -5816,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
@@ -5828,37 +5895,37 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
         <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH30" t="n">
         <v>26</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>26</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>25</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -5867,19 +5934,19 @@
         <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
         <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6049,7 +6116,7 @@
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-16-2013-14</t>
+          <t>2014-03-16</t>
         </is>
       </c>
     </row>
